--- a/xlsx/country_comparison/gcs_support_by_variant_warm_glow_extended.xlsx
+++ b/xlsx/country_comparison/gcs_support_by_variant_warm_glow_extended.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">y</t>
   </si>
@@ -26,7 +26,13 @@
     <t xml:space="preserve">CI_high</t>
   </si>
   <si>
+    <t xml:space="preserve">along</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variant_warm_glowdonation</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
@@ -401,10 +407,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
         <v>0.0501409905882078</v>
@@ -415,10 +424,13 @@
       <c r="D2" t="n">
         <v>0.0717624148015148</v>
       </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>0.0683406503378932</v>
@@ -429,10 +441,13 @@
       <c r="D3" t="n">
         <v>0.0987269763383878</v>
       </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>0.0409531354744338</v>
@@ -443,10 +458,13 @@
       <c r="D4" t="n">
         <v>0.118777437695865</v>
       </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
         <v>0.105063563887094</v>
@@ -457,10 +475,13 @@
       <c r="D5" t="n">
         <v>0.1753009952516</v>
       </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
         <v>0.0180448991190695</v>
@@ -471,10 +492,13 @@
       <c r="D6" t="n">
         <v>0.0844151633129267</v>
       </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
         <v>0.0839140271493218</v>
@@ -485,10 +509,13 @@
       <c r="D7" t="n">
         <v>0.177564710987618</v>
       </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
         <v>0.0337727064069773</v>
@@ -499,10 +526,13 @@
       <c r="D8" t="n">
         <v>0.121246854348408</v>
       </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
         <v>0.0965056082830024</v>
@@ -513,10 +543,13 @@
       <c r="D9" t="n">
         <v>0.173736336646054</v>
       </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
         <v>0.0720397779833484</v>
@@ -527,10 +560,13 @@
       <c r="D10" t="n">
         <v>0.169299875204068</v>
       </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
         <v>0.0477339592079592</v>
@@ -541,10 +577,13 @@
       <c r="D11" t="n">
         <v>0.0942986133639837</v>
       </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
         <v>0.0267148717027468</v>
@@ -554,6 +593,9 @@
       </c>
       <c r="D12" t="n">
         <v>0.0665061061312129</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
